--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_1_bus_isolated.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_1_bus_isolated.xlsx
@@ -749,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.8909260930523833</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.18850204033983</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.28600430314903</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -775,55 +775,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.759944874248851</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.759944874248851</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>54.96310908950708</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>54.96310908950708</v>
       </c>
       <c r="H3">
-        <v>2.77849193662405</v>
+        <v>2.773379543391843</v>
       </c>
       <c r="I3">
-        <v>-776.4949381702152</v>
+        <v>-776.4976094813654</v>
       </c>
       <c r="J3">
-        <v>9090868936.645271</v>
+        <v>0.1077319054463838</v>
       </c>
       <c r="K3">
-        <v>-47202.4936631322</v>
+        <v>2.3084386947077</v>
       </c>
       <c r="L3">
-        <v>9090937109.704126</v>
+        <v>0.1077319054079177</v>
       </c>
       <c r="M3">
-        <v>-60387.33950406314</v>
+        <v>2.308438694652609</v>
       </c>
       <c r="N3">
-        <v>0.9526315480870371</v>
+        <v>0.9526279648020806</v>
       </c>
       <c r="O3">
-        <v>7.416902229895198E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526244159159913</v>
+        <v>0.9526279648025208</v>
       </c>
       <c r="Q3">
-        <v>-1.570571173163757E-06</v>
+        <v>-3.836207795338157E-12</v>
       </c>
       <c r="R3">
-        <v>164.0727245902303</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9998791556078</v>
+        <v>-179.9999999999901</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526315480602657</v>
+        <v>0.9526279647753095</v>
       </c>
       <c r="O4">
-        <v>7.416837792943344E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526244159427627</v>
+        <v>0.952627964829292</v>
       </c>
       <c r="Q4">
-        <v>-1.569152066843503E-06</v>
+        <v>1.415284799513206E-09</v>
       </c>
       <c r="R4">
-        <v>164.0729616347173</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9998791570269</v>
+        <v>179.9999999985762</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -926,22 +926,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.952631548051342</v>
+        <v>0.9526279647663857</v>
       </c>
       <c r="O5">
-        <v>7.416816313993416E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526244159516866</v>
+        <v>0.9526279648382158</v>
       </c>
       <c r="Q5">
-        <v>-1.568679041478827E-06</v>
+        <v>1.888321939179643E-09</v>
       </c>
       <c r="R5">
-        <v>164.0730406491013</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998791574999</v>
+        <v>179.9999999981031</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.952631548051342</v>
+        <v>0.9526279647663857</v>
       </c>
       <c r="O6">
-        <v>7.416816313993416E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526244159516866</v>
+        <v>0.9526279648382157</v>
       </c>
       <c r="Q6">
-        <v>-1.568679041478827E-06</v>
+        <v>1.888312294483534E-09</v>
       </c>
       <c r="R6">
-        <v>164.0730406491013</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9998791574999</v>
+        <v>179.9999999981032</v>
       </c>
     </row>
   </sheetData>
@@ -1116,22 +1116,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>27.70356907604972</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.92524130249694</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.4402860785753</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1142,55 +1142,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.010953897753575</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.010953897753575</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>23.22049548391907</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>23.22049548391907</v>
       </c>
       <c r="H3">
-        <v>2.77849193662405</v>
+        <v>2.773379543391843</v>
       </c>
       <c r="I3">
-        <v>-776.4949381702152</v>
+        <v>-776.4976094813654</v>
       </c>
       <c r="J3">
-        <v>9090868936.645271</v>
+        <v>0.1077319054463838</v>
       </c>
       <c r="K3">
-        <v>-47202.4936631322</v>
+        <v>2.3084386947077</v>
       </c>
       <c r="L3">
-        <v>9090937109.704126</v>
+        <v>0.1077319054079177</v>
       </c>
       <c r="M3">
-        <v>-60387.33950406314</v>
+        <v>2.308438694652609</v>
       </c>
       <c r="N3">
-        <v>0.9526315479357853</v>
+        <v>1.107498627573924</v>
       </c>
       <c r="O3">
-        <v>7.416528330822547E-06</v>
+        <v>0.7109795688765316</v>
       </c>
       <c r="P3">
-        <v>0.9526244160672436</v>
+        <v>0.9171656569381403</v>
       </c>
       <c r="Q3">
-        <v>-1.561474405313755E-06</v>
+        <v>17.92198046293678</v>
       </c>
       <c r="R3">
-        <v>164.0743304965378</v>
+        <v>-106.5279586928745</v>
       </c>
       <c r="S3">
-        <v>-179.9998791647048</v>
+        <v>158.1868465769574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1234,22 +1234,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526315479090139</v>
+        <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>7.416463894810004E-06</v>
+        <v>0.7109795688760389</v>
       </c>
       <c r="P4">
-        <v>0.9526244160940149</v>
+        <v>0.9171656569531276</v>
       </c>
       <c r="Q4">
-        <v>-1.560055302846252E-06</v>
+        <v>17.92198046336741</v>
       </c>
       <c r="R4">
-        <v>164.0745675665877</v>
+        <v>-106.527958690445</v>
       </c>
       <c r="S4">
-        <v>-179.9998791661239</v>
+        <v>158.1868465770594</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526315479000902</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>7.416442416146771E-06</v>
+        <v>0.7109795688758744</v>
       </c>
       <c r="P5">
-        <v>0.9526244161029388</v>
+        <v>0.9171656569581234</v>
       </c>
       <c r="Q5">
-        <v>-1.559582277480835E-06</v>
+        <v>17.92198046351096</v>
       </c>
       <c r="R5">
-        <v>164.0746465896061</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S5">
-        <v>-179.9998791665969</v>
+        <v>158.1868465770935</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1352,22 +1352,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526315479000902</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>7.416442416146771E-06</v>
+        <v>0.7109795688758743</v>
       </c>
       <c r="P6">
-        <v>0.9526244161029388</v>
+        <v>0.9171656569581234</v>
       </c>
       <c r="Q6">
-        <v>-1.559582277480835E-06</v>
+        <v>17.92198046351096</v>
       </c>
       <c r="R6">
-        <v>164.0746465896061</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S6">
-        <v>-179.9998791665969</v>
+        <v>158.1868465770935</v>
       </c>
     </row>
   </sheetData>
@@ -1483,22 +1483,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>27.70356907604972</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.92524130249694</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.4402860785753</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1509,55 +1509,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.010953897753575</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.010953897753575</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>23.22049548391907</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>23.22049548391907</v>
       </c>
       <c r="H3">
-        <v>2.77849193662405</v>
+        <v>2.773379543391843</v>
       </c>
       <c r="I3">
-        <v>-776.4949381702152</v>
+        <v>-776.4976094813654</v>
       </c>
       <c r="J3">
-        <v>9090868936.645271</v>
+        <v>0.1077319054463838</v>
       </c>
       <c r="K3">
-        <v>-47202.4936631322</v>
+        <v>2.3084386947077</v>
       </c>
       <c r="L3">
-        <v>9090937109.704126</v>
+        <v>0.1077319054079177</v>
       </c>
       <c r="M3">
-        <v>-60387.33950406314</v>
+        <v>2.308438694652609</v>
       </c>
       <c r="N3">
-        <v>0.9526315479357853</v>
+        <v>1.107498627573924</v>
       </c>
       <c r="O3">
-        <v>7.416528330822547E-06</v>
+        <v>0.7109795688765316</v>
       </c>
       <c r="P3">
-        <v>0.9526244160672436</v>
+        <v>0.9171656569381403</v>
       </c>
       <c r="Q3">
-        <v>-1.561474405313755E-06</v>
+        <v>17.92198046293678</v>
       </c>
       <c r="R3">
-        <v>164.0743304965378</v>
+        <v>-106.5279586928745</v>
       </c>
       <c r="S3">
-        <v>-179.9998791647048</v>
+        <v>158.1868465769574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1601,22 +1601,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526315479090139</v>
+        <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>7.416463894810004E-06</v>
+        <v>0.7109795688760389</v>
       </c>
       <c r="P4">
-        <v>0.9526244160940149</v>
+        <v>0.9171656569531276</v>
       </c>
       <c r="Q4">
-        <v>-1.560055302846252E-06</v>
+        <v>17.92198046336741</v>
       </c>
       <c r="R4">
-        <v>164.0745675665877</v>
+        <v>-106.527958690445</v>
       </c>
       <c r="S4">
-        <v>-179.9998791661239</v>
+        <v>158.1868465770594</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526315479000902</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>7.416442416146771E-06</v>
+        <v>0.7109795688758744</v>
       </c>
       <c r="P5">
-        <v>0.9526244161029388</v>
+        <v>0.9171656569581234</v>
       </c>
       <c r="Q5">
-        <v>-1.559582277480835E-06</v>
+        <v>17.92198046351096</v>
       </c>
       <c r="R5">
-        <v>164.0746465896061</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S5">
-        <v>-179.9998791665969</v>
+        <v>158.1868465770935</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1719,22 +1719,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526315479000902</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>7.416442416146771E-06</v>
+        <v>0.7109795688758743</v>
       </c>
       <c r="P6">
-        <v>0.9526244161029388</v>
+        <v>0.9171656569581234</v>
       </c>
       <c r="Q6">
-        <v>-1.559582277480835E-06</v>
+        <v>17.92198046351096</v>
       </c>
       <c r="R6">
-        <v>164.0746465896061</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S6">
-        <v>-179.9998791665969</v>
+        <v>158.1868465770935</v>
       </c>
     </row>
   </sheetData>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9477232070952269</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7936674232739482</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9574835309888192</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>24.75158797610131</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.22492623897118</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1876,55 +1876,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.133684588661906</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.133684588661906</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>47.73167820017919</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.73167820017919</v>
       </c>
       <c r="H3">
-        <v>5.323658511042595</v>
+        <v>5.32443794456654</v>
       </c>
       <c r="I3">
-        <v>-776.4968811056406</v>
+        <v>-776.5031802328548</v>
       </c>
       <c r="J3">
-        <v>9090873877.686024</v>
+        <v>0.1153518595240183</v>
       </c>
       <c r="K3">
-        <v>16057.9855978489</v>
+        <v>2.416397540775549</v>
       </c>
       <c r="L3">
-        <v>9090893234.13781</v>
+        <v>0.1153518594660952</v>
       </c>
       <c r="M3">
-        <v>-14505.73126450181</v>
+        <v>2.416397540684741</v>
       </c>
       <c r="N3">
-        <v>0.8660270207077478</v>
+        <v>0.8660254037841215</v>
       </c>
       <c r="O3">
-        <v>6.863605310331529E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660263868457232</v>
+        <v>0.8660254037841828</v>
       </c>
       <c r="Q3">
-        <v>-0.0002987114259402258</v>
+        <v>3.088744976564046E-11</v>
       </c>
       <c r="R3">
-        <v>95.29881041760736</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.99984656019</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660270206834102</v>
+        <v>0.8660254037597845</v>
       </c>
       <c r="O4">
-        <v>6.863518799244734E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660263868700606</v>
+        <v>0.8660254038085203</v>
       </c>
       <c r="Q4">
-        <v>-0.000298708701241583</v>
+        <v>2.755589259574564E-09</v>
       </c>
       <c r="R4">
-        <v>95.29846931994221</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9998465629147</v>
+        <v>179.9999999972359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660270206752975</v>
+        <v>0.8660254037516719</v>
       </c>
       <c r="O5">
-        <v>6.863489962352987E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660263868781731</v>
+        <v>0.866025403816633</v>
       </c>
       <c r="Q5">
-        <v>-0.0002987077930068724</v>
+        <v>3.663821719604836E-09</v>
       </c>
       <c r="R5">
-        <v>95.29835561856619</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.999846563823</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660270206752975</v>
+        <v>0.8660254037516719</v>
       </c>
       <c r="O6">
-        <v>6.863489962352987E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660263868781731</v>
+        <v>0.866025403816633</v>
       </c>
       <c r="Q6">
-        <v>-0.0002987077930068724</v>
+        <v>3.663818610639744E-09</v>
       </c>
       <c r="R6">
-        <v>95.29835561856619</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.999846563823</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
   </sheetData>
@@ -2217,22 +2217,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9477232070952269</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7936674232739482</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9574835309888192</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>24.75158797610131</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.22492623897118</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2243,55 +2243,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.133684588661906</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.133684588661906</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>47.73167820017919</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.73167820017919</v>
       </c>
       <c r="H3">
-        <v>5.323658511042595</v>
+        <v>5.32443794456654</v>
       </c>
       <c r="I3">
-        <v>-776.4968811056406</v>
+        <v>-776.5031802328548</v>
       </c>
       <c r="J3">
-        <v>9090873877.686024</v>
+        <v>0.1153518595240183</v>
       </c>
       <c r="K3">
-        <v>16057.9855978489</v>
+        <v>2.416397540775549</v>
       </c>
       <c r="L3">
-        <v>9090893234.13781</v>
+        <v>0.1153518594660952</v>
       </c>
       <c r="M3">
-        <v>-14505.73126450181</v>
+        <v>2.416397540684741</v>
       </c>
       <c r="N3">
-        <v>0.8660270207077478</v>
+        <v>0.8660254037841215</v>
       </c>
       <c r="O3">
-        <v>6.863605310331529E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660263868457232</v>
+        <v>0.8660254037841828</v>
       </c>
       <c r="Q3">
-        <v>-0.0002987114259402258</v>
+        <v>3.088744976564046E-11</v>
       </c>
       <c r="R3">
-        <v>95.29881041760736</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.99984656019</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2335,22 +2335,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660270206834102</v>
+        <v>0.8660254037597845</v>
       </c>
       <c r="O4">
-        <v>6.863518799244734E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660263868700606</v>
+        <v>0.8660254038085203</v>
       </c>
       <c r="Q4">
-        <v>-0.000298708701241583</v>
+        <v>2.755589259574564E-09</v>
       </c>
       <c r="R4">
-        <v>95.29846931994221</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9998465629147</v>
+        <v>179.9999999972359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2394,22 +2394,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660270206752975</v>
+        <v>0.8660254037516719</v>
       </c>
       <c r="O5">
-        <v>6.863489962352987E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660263868781731</v>
+        <v>0.866025403816633</v>
       </c>
       <c r="Q5">
-        <v>-0.0002987077930068724</v>
+        <v>3.663821719604836E-09</v>
       </c>
       <c r="R5">
-        <v>95.29835561856619</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.999846563823</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2453,22 +2453,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660270206752975</v>
+        <v>0.8660254037516719</v>
       </c>
       <c r="O6">
-        <v>6.863489962352987E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660263868781731</v>
+        <v>0.866025403816633</v>
       </c>
       <c r="Q6">
-        <v>-0.0002987077930068724</v>
+        <v>3.663818610639744E-09</v>
       </c>
       <c r="R6">
-        <v>95.29835561856619</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.999846563823</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
   </sheetData>
@@ -2584,22 +2584,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9949806626618445</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9175617791399003</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9648695716021195</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>27.43727595412387</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.12802105335015</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.6304298035849</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2610,55 +2610,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.795733578210678</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.795733578210678</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20.73534529545569</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>20.73534529545569</v>
       </c>
       <c r="H3">
-        <v>5.323658511042595</v>
+        <v>5.32443794456654</v>
       </c>
       <c r="I3">
-        <v>-776.4968811056406</v>
+        <v>-776.5031802328548</v>
       </c>
       <c r="J3">
-        <v>9090873877.686024</v>
+        <v>0.1153518595240183</v>
       </c>
       <c r="K3">
-        <v>16057.9855978489</v>
+        <v>2.416397540775549</v>
       </c>
       <c r="L3">
-        <v>9090893234.13781</v>
+        <v>0.1153518594660952</v>
       </c>
       <c r="M3">
-        <v>-14505.73126450181</v>
+        <v>2.416397540684741</v>
       </c>
       <c r="N3">
-        <v>0.8660270205702468</v>
+        <v>1.005693895264114</v>
       </c>
       <c r="O3">
-        <v>6.863306091327437E-06</v>
+        <v>0.6348876951823896</v>
       </c>
       <c r="P3">
-        <v>0.8660263869832235</v>
+        <v>0.8307352055776825</v>
       </c>
       <c r="Q3">
-        <v>-0.0002987023289695109</v>
+        <v>17.57011779536516</v>
       </c>
       <c r="R3">
-        <v>95.29673649742486</v>
+        <v>-106.9885815758096</v>
       </c>
       <c r="S3">
-        <v>-179.999846569287</v>
+        <v>158.5647675412735</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2702,22 +2702,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660270205459092</v>
+        <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>6.863219581731569E-06</v>
+        <v>0.6348876951946467</v>
       </c>
       <c r="P4">
-        <v>0.866026387007561</v>
+        <v>0.8307352055979551</v>
       </c>
       <c r="Q4">
-        <v>-0.0002986996042666226</v>
+        <v>17.57011779629443</v>
       </c>
       <c r="R4">
-        <v>95.29639535981282</v>
+        <v>-106.9885815722256</v>
       </c>
       <c r="S4">
-        <v>-179.9998465720117</v>
+        <v>158.5647675409582</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660270205377965</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O5">
-        <v>6.863190745193382E-06</v>
+        <v>0.6348876951987323</v>
       </c>
       <c r="P5">
-        <v>0.8660263870156735</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q5">
-        <v>-0.0002986986960319127</v>
+        <v>17.57011779660418</v>
       </c>
       <c r="R5">
-        <v>95.29628164379881</v>
+        <v>-106.9885815710309</v>
       </c>
       <c r="S5">
-        <v>-179.9998465729199</v>
+        <v>158.5647675408532</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2820,22 +2820,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660270205377965</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O6">
-        <v>6.863190745193382E-06</v>
+        <v>0.6348876951987323</v>
       </c>
       <c r="P6">
-        <v>0.8660263870156735</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q6">
-        <v>-0.0002986986960319127</v>
+        <v>17.57011779660418</v>
       </c>
       <c r="R6">
-        <v>95.29628164379881</v>
+        <v>-106.9885815710309</v>
       </c>
       <c r="S6">
-        <v>-179.9998465729199</v>
+        <v>158.5647675408532</v>
       </c>
     </row>
   </sheetData>
@@ -2951,22 +2951,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9949806626618445</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9175617791399003</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9648695716021195</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>27.43727595412387</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.12802105335015</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.6304298035849</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2977,55 +2977,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.795733578210678</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.795733578210678</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20.73534529545569</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>20.73534529545569</v>
       </c>
       <c r="H3">
-        <v>5.323658511042595</v>
+        <v>5.32443794456654</v>
       </c>
       <c r="I3">
-        <v>-776.4968811056406</v>
+        <v>-776.5031802328548</v>
       </c>
       <c r="J3">
-        <v>9090873877.686024</v>
+        <v>0.1153518595240183</v>
       </c>
       <c r="K3">
-        <v>16057.9855978489</v>
+        <v>2.416397540775549</v>
       </c>
       <c r="L3">
-        <v>9090893234.13781</v>
+        <v>0.1153518594660952</v>
       </c>
       <c r="M3">
-        <v>-14505.73126450181</v>
+        <v>2.416397540684741</v>
       </c>
       <c r="N3">
-        <v>0.8660270205702468</v>
+        <v>1.005693895264114</v>
       </c>
       <c r="O3">
-        <v>6.863306091327437E-06</v>
+        <v>0.6348876951823896</v>
       </c>
       <c r="P3">
-        <v>0.8660263869832235</v>
+        <v>0.8307352055776825</v>
       </c>
       <c r="Q3">
-        <v>-0.0002987023289695109</v>
+        <v>17.57011779536516</v>
       </c>
       <c r="R3">
-        <v>95.29673649742486</v>
+        <v>-106.9885815758096</v>
       </c>
       <c r="S3">
-        <v>-179.999846569287</v>
+        <v>158.5647675412735</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3069,22 +3069,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660270205459092</v>
+        <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>6.863219581731569E-06</v>
+        <v>0.6348876951946467</v>
       </c>
       <c r="P4">
-        <v>0.866026387007561</v>
+        <v>0.8307352055979551</v>
       </c>
       <c r="Q4">
-        <v>-0.0002986996042666226</v>
+        <v>17.57011779629443</v>
       </c>
       <c r="R4">
-        <v>95.29639535981282</v>
+        <v>-106.9885815722256</v>
       </c>
       <c r="S4">
-        <v>-179.9998465720117</v>
+        <v>158.5647675409582</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3128,22 +3128,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660270205377965</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O5">
-        <v>6.863190745193382E-06</v>
+        <v>0.6348876951987323</v>
       </c>
       <c r="P5">
-        <v>0.8660263870156735</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q5">
-        <v>-0.0002986986960319127</v>
+        <v>17.57011779660418</v>
       </c>
       <c r="R5">
-        <v>95.29628164379881</v>
+        <v>-106.9885815710309</v>
       </c>
       <c r="S5">
-        <v>-179.9998465729199</v>
+        <v>158.5647675408532</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3187,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660270205377965</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O6">
-        <v>6.863190745193382E-06</v>
+        <v>0.6348876951987323</v>
       </c>
       <c r="P6">
-        <v>0.8660263870156735</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q6">
-        <v>-0.0002986986960319127</v>
+        <v>17.57011779660418</v>
       </c>
       <c r="R6">
-        <v>95.29628164379881</v>
+        <v>-106.9885815710309</v>
       </c>
       <c r="S6">
-        <v>-179.9998465729199</v>
+        <v>158.5647675408532</v>
       </c>
     </row>
   </sheetData>
@@ -3318,22 +3318,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100879598712923</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.100991753674565</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.9668297732816</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0230490268303</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3341,7 +3341,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.04936621856839287</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5700319915867106</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3359,40 +3359,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.77227871119976</v>
+        <v>2.77337954339161</v>
       </c>
       <c r="I3">
-        <v>-776.4992310519965</v>
+        <v>-776.4976094813653</v>
       </c>
       <c r="J3">
-        <v>9090933494.82663</v>
+        <v>0.1077319052315895</v>
       </c>
       <c r="K3">
-        <v>-13813.34315165877</v>
+        <v>2.308438694639331</v>
       </c>
       <c r="L3">
-        <v>9090932858.978201</v>
+        <v>0.107731905424302</v>
       </c>
       <c r="M3">
-        <v>-70981.02527819574</v>
+        <v>2.308438694642495</v>
       </c>
       <c r="N3">
-        <v>0.549999952015949</v>
+        <v>1.104794014431492</v>
       </c>
       <c r="O3">
-        <v>1.099999985384151</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P3">
-        <v>0.5500000333682018</v>
+        <v>1.105080704642082</v>
       </c>
       <c r="Q3">
-        <v>89.99981983123574</v>
+        <v>29.8393429923362</v>
       </c>
       <c r="R3">
-        <v>-90.00018015082547</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S3">
-        <v>89.99981986709874</v>
+        <v>150.1347541365041</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3436,22 +3436,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5499999520623182</v>
+        <v>1.104794014431135</v>
       </c>
       <c r="O4">
-        <v>1.099999985384151</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P4">
-        <v>0.5500000333218326</v>
+        <v>1.105080704641989</v>
       </c>
       <c r="Q4">
-        <v>89.9998198269784</v>
+        <v>29.83934299233096</v>
       </c>
       <c r="R4">
-        <v>-90.00018015082547</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S4">
-        <v>89.99981987135608</v>
+        <v>150.1347541364855</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3495,22 +3495,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5499999520777746</v>
+        <v>1.104794014431017</v>
       </c>
       <c r="O5">
-        <v>1.099999985384151</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P5">
-        <v>0.550000033306376</v>
+        <v>1.105080704641959</v>
       </c>
       <c r="Q5">
-        <v>89.99981982555929</v>
+        <v>29.8393429923292</v>
       </c>
       <c r="R5">
-        <v>-90.00018015082547</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S5">
-        <v>89.99981987277518</v>
+        <v>150.1347541364793</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5499999520777746</v>
+        <v>1.104794014431017</v>
       </c>
       <c r="O6">
-        <v>1.099999985384151</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P6">
-        <v>0.550000033306376</v>
+        <v>1.105080704641959</v>
       </c>
       <c r="Q6">
-        <v>89.99981982555929</v>
+        <v>29.8393429923292</v>
       </c>
       <c r="R6">
-        <v>-90.00018015082547</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S6">
-        <v>89.99981987277518</v>
+        <v>150.1347541364793</v>
       </c>
     </row>
   </sheetData>
@@ -3685,22 +3685,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100879598712923</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.100991753674565</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.9668297732816</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0230490268303</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3708,7 +3708,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.04936621856839287</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5700319915867106</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3726,40 +3726,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.77227871119976</v>
+        <v>2.77337954339161</v>
       </c>
       <c r="I3">
-        <v>-776.4992310519965</v>
+        <v>-776.4976094813653</v>
       </c>
       <c r="J3">
-        <v>9090933494.82663</v>
+        <v>0.1077319052315895</v>
       </c>
       <c r="K3">
-        <v>-13813.34315165877</v>
+        <v>2.308438694639331</v>
       </c>
       <c r="L3">
-        <v>9090932858.978201</v>
+        <v>0.107731905424302</v>
       </c>
       <c r="M3">
-        <v>-70981.02527819574</v>
+        <v>2.308438694642495</v>
       </c>
       <c r="N3">
-        <v>0.549999952015949</v>
+        <v>1.104794014431492</v>
       </c>
       <c r="O3">
-        <v>1.099999985384151</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P3">
-        <v>0.5500000333682018</v>
+        <v>1.105080704642082</v>
       </c>
       <c r="Q3">
-        <v>89.99981983123574</v>
+        <v>29.8393429923362</v>
       </c>
       <c r="R3">
-        <v>-90.00018015082547</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S3">
-        <v>89.99981986709874</v>
+        <v>150.1347541365041</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3803,22 +3803,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5499999520623182</v>
+        <v>1.104794014431135</v>
       </c>
       <c r="O4">
-        <v>1.099999985384151</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P4">
-        <v>0.5500000333218326</v>
+        <v>1.105080704641989</v>
       </c>
       <c r="Q4">
-        <v>89.9998198269784</v>
+        <v>29.83934299233096</v>
       </c>
       <c r="R4">
-        <v>-90.00018015082547</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S4">
-        <v>89.99981987135608</v>
+        <v>150.1347541364855</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3862,22 +3862,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5499999520777746</v>
+        <v>1.104794014431017</v>
       </c>
       <c r="O5">
-        <v>1.099999985384151</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P5">
-        <v>0.550000033306376</v>
+        <v>1.105080704641959</v>
       </c>
       <c r="Q5">
-        <v>89.99981982555929</v>
+        <v>29.8393429923292</v>
       </c>
       <c r="R5">
-        <v>-90.00018015082547</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S5">
-        <v>89.99981987277518</v>
+        <v>150.1347541364793</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3921,22 +3921,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5499999520777746</v>
+        <v>1.104794014431017</v>
       </c>
       <c r="O6">
-        <v>1.099999985384151</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P6">
-        <v>0.550000033306376</v>
+        <v>1.105080704641959</v>
       </c>
       <c r="Q6">
-        <v>89.99981982555929</v>
+        <v>29.8393429923292</v>
       </c>
       <c r="R6">
-        <v>-90.00018015082547</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S6">
-        <v>89.99981987277518</v>
+        <v>150.1347541364793</v>
       </c>
     </row>
   </sheetData>
@@ -4052,22 +4052,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100883697031886</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101019904878342</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.96526043744669</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.022447698362</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4075,7 +4075,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.05033073143402671</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5811692268389216</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4093,40 +4093,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.77227871119976</v>
+        <v>2.77337954339161</v>
       </c>
       <c r="I3">
-        <v>-776.4992310519965</v>
+        <v>-776.4976094813653</v>
       </c>
       <c r="J3">
-        <v>9090933494.82663</v>
+        <v>0.1077319052315895</v>
       </c>
       <c r="K3">
-        <v>-13813.34315165877</v>
+        <v>2.308438694639331</v>
       </c>
       <c r="L3">
-        <v>9090932858.978201</v>
+        <v>0.107731905424302</v>
       </c>
       <c r="M3">
-        <v>-70981.02527819574</v>
+        <v>2.308438694642495</v>
       </c>
       <c r="N3">
-        <v>0.5499999528018692</v>
+        <v>1.104824262476763</v>
       </c>
       <c r="O3">
-        <v>1.09999998538415</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P3">
-        <v>0.5500000325822806</v>
+        <v>1.105231466387157</v>
       </c>
       <c r="Q3">
-        <v>89.99981974936496</v>
+        <v>29.83120416735003</v>
       </c>
       <c r="R3">
-        <v>-90.00018015082522</v>
+        <v>-89.99999999999804</v>
       </c>
       <c r="S3">
-        <v>89.99981994897001</v>
+        <v>150.1320033829886</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4170,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5499999528482385</v>
+        <v>1.104824262476398</v>
       </c>
       <c r="O4">
-        <v>1.09999998538415</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P4">
-        <v>0.5500000325359112</v>
+        <v>1.105231466387056</v>
       </c>
       <c r="Q4">
-        <v>89.99981974510763</v>
+        <v>29.83120416734504</v>
       </c>
       <c r="R4">
-        <v>-90.00018015082522</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S4">
-        <v>89.99981995322733</v>
+        <v>150.1320033829697</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4229,22 +4229,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.549999952863695</v>
+        <v>1.104824262476276</v>
       </c>
       <c r="O5">
-        <v>1.09999998538415</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P5">
-        <v>0.5500000325204547</v>
+        <v>1.105231466387022</v>
       </c>
       <c r="Q5">
-        <v>89.99981974368853</v>
+        <v>29.83120416734339</v>
       </c>
       <c r="R5">
-        <v>-90.00018015082523</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S5">
-        <v>89.99981995464644</v>
+        <v>150.1320033829634</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4288,22 +4288,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.549999952863695</v>
+        <v>1.104824262476277</v>
       </c>
       <c r="O6">
-        <v>1.09999998538415</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P6">
-        <v>0.5500000325204547</v>
+        <v>1.105231466387022</v>
       </c>
       <c r="Q6">
-        <v>89.99981974368853</v>
+        <v>29.83120416734338</v>
       </c>
       <c r="R6">
-        <v>-90.00018015082523</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S6">
-        <v>89.99981995464644</v>
+        <v>150.1320033829634</v>
       </c>
     </row>
   </sheetData>
@@ -4570,22 +4570,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100883697031886</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101019904878342</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.96526043744669</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.022447698362</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4593,7 +4593,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.05033073143402671</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5811692268389216</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4611,40 +4611,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.77227871119976</v>
+        <v>2.77337954339161</v>
       </c>
       <c r="I3">
-        <v>-776.4992310519965</v>
+        <v>-776.4976094813653</v>
       </c>
       <c r="J3">
-        <v>9090933494.82663</v>
+        <v>0.1077319052315895</v>
       </c>
       <c r="K3">
-        <v>-13813.34315165877</v>
+        <v>2.308438694639331</v>
       </c>
       <c r="L3">
-        <v>9090932858.978201</v>
+        <v>0.107731905424302</v>
       </c>
       <c r="M3">
-        <v>-70981.02527819574</v>
+        <v>2.308438694642495</v>
       </c>
       <c r="N3">
-        <v>0.5499999528018692</v>
+        <v>1.104824262476763</v>
       </c>
       <c r="O3">
-        <v>1.09999998538415</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P3">
-        <v>0.5500000325822806</v>
+        <v>1.105231466387157</v>
       </c>
       <c r="Q3">
-        <v>89.99981974936496</v>
+        <v>29.83120416735003</v>
       </c>
       <c r="R3">
-        <v>-90.00018015082522</v>
+        <v>-89.99999999999804</v>
       </c>
       <c r="S3">
-        <v>89.99981994897001</v>
+        <v>150.1320033829886</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4688,22 +4688,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5499999528482385</v>
+        <v>1.104824262476398</v>
       </c>
       <c r="O4">
-        <v>1.09999998538415</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P4">
-        <v>0.5500000325359112</v>
+        <v>1.105231466387056</v>
       </c>
       <c r="Q4">
-        <v>89.99981974510763</v>
+        <v>29.83120416734504</v>
       </c>
       <c r="R4">
-        <v>-90.00018015082522</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S4">
-        <v>89.99981995322733</v>
+        <v>150.1320033829697</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4747,22 +4747,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.549999952863695</v>
+        <v>1.104824262476276</v>
       </c>
       <c r="O5">
-        <v>1.09999998538415</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P5">
-        <v>0.5500000325204547</v>
+        <v>1.105231466387022</v>
       </c>
       <c r="Q5">
-        <v>89.99981974368853</v>
+        <v>29.83120416734339</v>
       </c>
       <c r="R5">
-        <v>-90.00018015082523</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S5">
-        <v>89.99981995464644</v>
+        <v>150.1320033829634</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4806,22 +4806,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.549999952863695</v>
+        <v>1.104824262476277</v>
       </c>
       <c r="O6">
-        <v>1.09999998538415</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P6">
-        <v>0.5500000325204547</v>
+        <v>1.105231466387022</v>
       </c>
       <c r="Q6">
-        <v>89.99981974368853</v>
+        <v>29.83120416734338</v>
       </c>
       <c r="R6">
-        <v>-90.00018015082523</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S6">
-        <v>89.99981995464644</v>
+        <v>150.1320033829634</v>
       </c>
     </row>
   </sheetData>
@@ -4937,22 +4937,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000906714864346</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001026302475071</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.96212818328933</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0260002204148</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4960,7 +4960,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.04488978616223808</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5183426024926578</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4978,40 +4978,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.323947407305241</v>
+        <v>5.324437944565257</v>
       </c>
       <c r="I3">
-        <v>-776.5083894841989</v>
+        <v>-776.5031802328555</v>
       </c>
       <c r="J3">
-        <v>9090950373.723555</v>
+        <v>0.1153518594260827</v>
       </c>
       <c r="K3">
-        <v>53008.62128790468</v>
+        <v>2.416397540671855</v>
       </c>
       <c r="L3">
-        <v>9090949237.990337</v>
+        <v>0.1153518594814384</v>
       </c>
       <c r="M3">
-        <v>-4927.235144935548</v>
+        <v>2.416397540675519</v>
       </c>
       <c r="N3">
-        <v>0.4999999317742812</v>
+        <v>1.004550636981045</v>
       </c>
       <c r="O3">
-        <v>0.9999999375476335</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P3">
-        <v>0.5000000057733525</v>
+        <v>1.004847185365569</v>
       </c>
       <c r="Q3">
-        <v>89.9998173993469</v>
+        <v>29.83066989895932</v>
       </c>
       <c r="R3">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S3">
-        <v>89.99981745961024</v>
+        <v>150.1398551389015</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5055,22 +5055,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4999999318164347</v>
+        <v>1.004550636980525</v>
       </c>
       <c r="O4">
-        <v>0.9999999375476335</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P4">
-        <v>0.5000000057311988</v>
+        <v>1.004847185365289</v>
       </c>
       <c r="Q4">
-        <v>89.9998173911728</v>
+        <v>29.83066989896055</v>
       </c>
       <c r="R4">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>89.99981746778434</v>
+        <v>150.1398551388765</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5114,22 +5114,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999999318304861</v>
+        <v>1.004550636980352</v>
       </c>
       <c r="O5">
-        <v>0.9999999375476335</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P5">
-        <v>0.5000000057171475</v>
+        <v>1.004847185365195</v>
       </c>
       <c r="Q5">
-        <v>89.99981738844812</v>
+        <v>29.83066989896096</v>
       </c>
       <c r="R5">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>89.99981747050904</v>
+        <v>150.1398551388682</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5173,22 +5173,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999999318304861</v>
+        <v>1.004550636980352</v>
       </c>
       <c r="O6">
-        <v>0.9999999375476335</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P6">
-        <v>0.5000000057171475</v>
+        <v>1.004847185365195</v>
       </c>
       <c r="Q6">
-        <v>89.99981738844812</v>
+        <v>29.83066989896096</v>
       </c>
       <c r="R6">
-        <v>-90.00018257051413</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>89.99981747050904</v>
+        <v>150.1398551388682</v>
       </c>
     </row>
   </sheetData>
@@ -5304,22 +5304,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000906714864346</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001026302475071</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.96212818328933</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0260002204148</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5327,7 +5327,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.04488978616223808</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5183426024926578</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5345,40 +5345,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.323947407305241</v>
+        <v>5.324437944565257</v>
       </c>
       <c r="I3">
-        <v>-776.5083894841989</v>
+        <v>-776.5031802328555</v>
       </c>
       <c r="J3">
-        <v>9090950373.723555</v>
+        <v>0.1153518594260827</v>
       </c>
       <c r="K3">
-        <v>53008.62128790468</v>
+        <v>2.416397540671855</v>
       </c>
       <c r="L3">
-        <v>9090949237.990337</v>
+        <v>0.1153518594814384</v>
       </c>
       <c r="M3">
-        <v>-4927.235144935548</v>
+        <v>2.416397540675519</v>
       </c>
       <c r="N3">
-        <v>0.4999999317742812</v>
+        <v>1.004550636981045</v>
       </c>
       <c r="O3">
-        <v>0.9999999375476335</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P3">
-        <v>0.5000000057733525</v>
+        <v>1.004847185365569</v>
       </c>
       <c r="Q3">
-        <v>89.9998173993469</v>
+        <v>29.83066989895932</v>
       </c>
       <c r="R3">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S3">
-        <v>89.99981745961024</v>
+        <v>150.1398551389015</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5422,22 +5422,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4999999318164347</v>
+        <v>1.004550636980525</v>
       </c>
       <c r="O4">
-        <v>0.9999999375476335</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P4">
-        <v>0.5000000057311988</v>
+        <v>1.004847185365289</v>
       </c>
       <c r="Q4">
-        <v>89.9998173911728</v>
+        <v>29.83066989896055</v>
       </c>
       <c r="R4">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>89.99981746778434</v>
+        <v>150.1398551388765</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5481,22 +5481,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999999318304861</v>
+        <v>1.004550636980352</v>
       </c>
       <c r="O5">
-        <v>0.9999999375476335</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P5">
-        <v>0.5000000057171475</v>
+        <v>1.004847185365195</v>
       </c>
       <c r="Q5">
-        <v>89.99981738844812</v>
+        <v>29.83066989896096</v>
       </c>
       <c r="R5">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>89.99981747050904</v>
+        <v>150.1398551388682</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5540,22 +5540,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999999318304861</v>
+        <v>1.004550636980352</v>
       </c>
       <c r="O6">
-        <v>0.9999999375476335</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P6">
-        <v>0.5000000057171475</v>
+        <v>1.004847185365195</v>
       </c>
       <c r="Q6">
-        <v>89.99981738844812</v>
+        <v>29.83066989896096</v>
       </c>
       <c r="R6">
-        <v>-90.00018257051413</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>89.99981747050904</v>
+        <v>150.1398551388682</v>
       </c>
     </row>
   </sheetData>
@@ -5671,22 +5671,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000910743574796</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001055315701764</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.96034267313202</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0253054108357</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5694,7 +5694,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0457639709654051</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5284368191212572</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5712,40 +5712,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.323947407305241</v>
+        <v>5.324437944565257</v>
       </c>
       <c r="I3">
-        <v>-776.5083894841989</v>
+        <v>-776.5031802328555</v>
       </c>
       <c r="J3">
-        <v>9090950373.723555</v>
+        <v>0.1153518594260827</v>
       </c>
       <c r="K3">
-        <v>53008.62128790468</v>
+        <v>2.416397540671855</v>
       </c>
       <c r="L3">
-        <v>9090949237.990337</v>
+        <v>0.1153518594814384</v>
       </c>
       <c r="M3">
-        <v>-4927.235144935548</v>
+        <v>2.416397540675519</v>
       </c>
       <c r="N3">
-        <v>0.4999999324887464</v>
+        <v>1.004578294055099</v>
       </c>
       <c r="O3">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>0.5000000050588896</v>
+        <v>1.004990320065824</v>
       </c>
       <c r="Q3">
-        <v>89.99981731747479</v>
+        <v>29.82213556261419</v>
       </c>
       <c r="R3">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>89.99981754148268</v>
+        <v>150.1369106109303</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5789,22 +5789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4999999325308999</v>
+        <v>1.00457829405457</v>
       </c>
       <c r="O4">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P4">
-        <v>0.5000000050167361</v>
+        <v>1.004990320065529</v>
       </c>
       <c r="Q4">
-        <v>89.99981730930068</v>
+        <v>29.82213556261602</v>
       </c>
       <c r="R4">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>89.9998175496568</v>
+        <v>150.1369106109052</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5848,22 +5848,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999999325449512</v>
+        <v>1.004578294054393</v>
       </c>
       <c r="O5">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P5">
-        <v>0.5000000050026849</v>
+        <v>1.004990320065431</v>
       </c>
       <c r="Q5">
-        <v>89.99981730657599</v>
+        <v>29.82213556261663</v>
       </c>
       <c r="R5">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>89.99981755238146</v>
+        <v>150.1369106108968</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5907,22 +5907,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999999325449512</v>
+        <v>1.004578294054393</v>
       </c>
       <c r="O6">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P6">
-        <v>0.5000000050026849</v>
+        <v>1.004990320065431</v>
       </c>
       <c r="Q6">
-        <v>89.99981730657599</v>
+        <v>29.82213556261664</v>
       </c>
       <c r="R6">
-        <v>-90.00018257051396</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>89.99981755238146</v>
+        <v>150.1369106108968</v>
       </c>
     </row>
   </sheetData>
@@ -6038,22 +6038,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000910743574796</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001055315701764</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.96034267313202</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0253054108357</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6061,7 +6061,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0457639709654051</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5284368191212572</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6079,40 +6079,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.323947407305241</v>
+        <v>5.324437944565257</v>
       </c>
       <c r="I3">
-        <v>-776.5083894841989</v>
+        <v>-776.5031802328555</v>
       </c>
       <c r="J3">
-        <v>9090950373.723555</v>
+        <v>0.1153518594260827</v>
       </c>
       <c r="K3">
-        <v>53008.62128790468</v>
+        <v>2.416397540671855</v>
       </c>
       <c r="L3">
-        <v>9090949237.990337</v>
+        <v>0.1153518594814384</v>
       </c>
       <c r="M3">
-        <v>-4927.235144935548</v>
+        <v>2.416397540675519</v>
       </c>
       <c r="N3">
-        <v>0.4999999324887464</v>
+        <v>1.004578294055099</v>
       </c>
       <c r="O3">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>0.5000000050588896</v>
+        <v>1.004990320065824</v>
       </c>
       <c r="Q3">
-        <v>89.99981731747479</v>
+        <v>29.82213556261419</v>
       </c>
       <c r="R3">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>89.99981754148268</v>
+        <v>150.1369106109303</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6156,22 +6156,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4999999325308999</v>
+        <v>1.00457829405457</v>
       </c>
       <c r="O4">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P4">
-        <v>0.5000000050167361</v>
+        <v>1.004990320065529</v>
       </c>
       <c r="Q4">
-        <v>89.99981730930068</v>
+        <v>29.82213556261602</v>
       </c>
       <c r="R4">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>89.9998175496568</v>
+        <v>150.1369106109052</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6215,22 +6215,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999999325449512</v>
+        <v>1.004578294054393</v>
       </c>
       <c r="O5">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P5">
-        <v>0.5000000050026849</v>
+        <v>1.004990320065431</v>
       </c>
       <c r="Q5">
-        <v>89.99981730657599</v>
+        <v>29.82213556261663</v>
       </c>
       <c r="R5">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>89.99981755238146</v>
+        <v>150.1369106108968</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999999325449512</v>
+        <v>1.004578294054393</v>
       </c>
       <c r="O6">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P6">
-        <v>0.5000000050026849</v>
+        <v>1.004990320065431</v>
       </c>
       <c r="Q6">
-        <v>89.99981730657599</v>
+        <v>29.82213556261664</v>
       </c>
       <c r="R6">
-        <v>-90.00018257051396</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>89.99981755238146</v>
+        <v>150.1369106108968</v>
       </c>
     </row>
   </sheetData>
@@ -6405,22 +6405,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.046826508394941</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.8909260930523726</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.056907580625146</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.18085847387006</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.28600430314859</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.0724809162791</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6431,55 +6431,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.760578207672038</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.759343174643752</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>54.97042219395434</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>54.95616126092757</v>
       </c>
       <c r="H3">
-        <v>2.77849193662405</v>
+        <v>2.773379543391843</v>
       </c>
       <c r="I3">
-        <v>-776.4949381702152</v>
+        <v>-776.4976094813654</v>
       </c>
       <c r="J3">
-        <v>9090868936.645271</v>
+        <v>0.1077319054463838</v>
       </c>
       <c r="K3">
-        <v>-47202.4936631322</v>
+        <v>2.3084386947077</v>
       </c>
       <c r="L3">
-        <v>9090937109.704126</v>
+        <v>0.1077319054079177</v>
       </c>
       <c r="M3">
-        <v>-60387.33950406314</v>
+        <v>2.308438694652609</v>
       </c>
       <c r="N3">
-        <v>1.496941654342754E-06</v>
+        <v>0.9540458423241548</v>
       </c>
       <c r="O3">
-        <v>7.416920157842912E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>6.470014483682216E-06</v>
+        <v>0.9540458423246454</v>
       </c>
       <c r="Q3">
-        <v>-62.05172267751237</v>
+        <v>-0.004285131810730089</v>
       </c>
       <c r="R3">
-        <v>164.0726547224881</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-6.326731896514896</v>
+        <v>179.9957148681896</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6523,22 +6523,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.496886457162358E-06</v>
+        <v>0.9540458422973175</v>
       </c>
       <c r="O4">
-        <v>7.416855721109059E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>6.469949766475375E-06</v>
+        <v>0.9540458423513539</v>
       </c>
       <c r="Q4">
-        <v>-62.04999093321661</v>
+        <v>-0.004285130397799053</v>
       </c>
       <c r="R4">
-        <v>164.0728917679031</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-6.326998359432157</v>
+        <v>179.9957148667688</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6582,22 +6582,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.496868058407344E-06</v>
+        <v>0.9540458422883717</v>
       </c>
       <c r="O5">
-        <v>7.416834242331574E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>6.469928194332306E-06</v>
+        <v>0.9540458423602569</v>
       </c>
       <c r="Q5">
-        <v>-62.04941366416834</v>
+        <v>-0.004285129926823797</v>
       </c>
       <c r="R5">
-        <v>164.0729707823014</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-6.327087182638834</v>
+        <v>179.9957148662952</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6641,22 +6641,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.496868058407344E-06</v>
+        <v>0.9540458422883716</v>
       </c>
       <c r="O6">
-        <v>7.416834242331574E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6.469928194332306E-06</v>
+        <v>0.9540458423602569</v>
       </c>
       <c r="Q6">
-        <v>-62.04941366416834</v>
+        <v>-0.004285129926830278</v>
       </c>
       <c r="R6">
-        <v>164.0729707823014</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-6.327087182638834</v>
+        <v>179.9957148662952</v>
       </c>
     </row>
   </sheetData>
@@ -6772,22 +6772,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.046826508394941</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.8909260930523726</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.056907580625146</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.18085847387006</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.28600430314859</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.0724809162791</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6798,55 +6798,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.760578207672038</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.759343174643752</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>54.97042219395434</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>54.95616126092757</v>
       </c>
       <c r="H3">
-        <v>2.77849193662405</v>
+        <v>2.773379543391843</v>
       </c>
       <c r="I3">
-        <v>-776.4949381702152</v>
+        <v>-776.4976094813654</v>
       </c>
       <c r="J3">
-        <v>9090868936.645271</v>
+        <v>0.1077319054463838</v>
       </c>
       <c r="K3">
-        <v>-47202.4936631322</v>
+        <v>2.3084386947077</v>
       </c>
       <c r="L3">
-        <v>9090937109.704126</v>
+        <v>0.1077319054079177</v>
       </c>
       <c r="M3">
-        <v>-60387.33950406314</v>
+        <v>2.308438694652609</v>
       </c>
       <c r="N3">
-        <v>1.496941654342754E-06</v>
+        <v>0.9540458423241548</v>
       </c>
       <c r="O3">
-        <v>7.416920157842912E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>6.470014483682216E-06</v>
+        <v>0.9540458423246454</v>
       </c>
       <c r="Q3">
-        <v>-62.05172267751237</v>
+        <v>-0.004285131810730089</v>
       </c>
       <c r="R3">
-        <v>164.0726547224881</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-6.326731896514896</v>
+        <v>179.9957148681896</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6890,22 +6890,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.496886457162358E-06</v>
+        <v>0.9540458422973175</v>
       </c>
       <c r="O4">
-        <v>7.416855721109059E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>6.469949766475375E-06</v>
+        <v>0.9540458423513539</v>
       </c>
       <c r="Q4">
-        <v>-62.04999093321661</v>
+        <v>-0.004285130397799053</v>
       </c>
       <c r="R4">
-        <v>164.0728917679031</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-6.326998359432157</v>
+        <v>179.9957148667688</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6949,22 +6949,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.496868058407344E-06</v>
+        <v>0.9540458422883717</v>
       </c>
       <c r="O5">
-        <v>7.416834242331574E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>6.469928194332306E-06</v>
+        <v>0.9540458423602569</v>
       </c>
       <c r="Q5">
-        <v>-62.04941366416834</v>
+        <v>-0.004285129926823797</v>
       </c>
       <c r="R5">
-        <v>164.0729707823014</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-6.327087182638834</v>
+        <v>179.9957148662952</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7008,22 +7008,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.496868058407344E-06</v>
+        <v>0.9540458422883716</v>
       </c>
       <c r="O6">
-        <v>7.416834242331574E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6.469928194332306E-06</v>
+        <v>0.9540458423602569</v>
       </c>
       <c r="Q6">
-        <v>-62.04941366416834</v>
+        <v>-0.004285129926830278</v>
       </c>
       <c r="R6">
-        <v>164.0729707823014</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-6.327087182638834</v>
+        <v>179.9957148662952</v>
       </c>
     </row>
   </sheetData>
@@ -7139,22 +7139,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100197482530458</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.052967690033151</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.077018811640861</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.57808718246682</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.44286082238195</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.7443018270091</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7165,55 +7165,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.24096506676409</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.226480531316522</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>14.32943030702339</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>14.16217729822859</v>
       </c>
       <c r="H3">
-        <v>2.77849193662405</v>
+        <v>2.773379543391843</v>
       </c>
       <c r="I3">
-        <v>-776.4949381702152</v>
+        <v>-776.4976094813654</v>
       </c>
       <c r="J3">
-        <v>9090868936.645271</v>
+        <v>0.1077319054463838</v>
       </c>
       <c r="K3">
-        <v>-47202.4936631322</v>
+        <v>2.3084386947077</v>
       </c>
       <c r="L3">
-        <v>9090937109.704126</v>
+        <v>0.1077319054079177</v>
       </c>
       <c r="M3">
-        <v>-60387.33950406314</v>
+        <v>2.308438694652609</v>
       </c>
       <c r="N3">
-        <v>1.495882144287874E-06</v>
+        <v>1.116087877299543</v>
       </c>
       <c r="O3">
-        <v>7.416172361479501E-06</v>
+        <v>0.8723446855796162</v>
       </c>
       <c r="P3">
-        <v>6.468291620252532E-06</v>
+        <v>0.9773928866977848</v>
       </c>
       <c r="Q3">
-        <v>-61.9751282538282</v>
+        <v>22.62696449294992</v>
       </c>
       <c r="R3">
-        <v>164.0758667130463</v>
+        <v>-100.0510163396292</v>
       </c>
       <c r="S3">
-        <v>-6.339736773930855</v>
+        <v>153.9280037842302</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7257,22 +7257,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.495827007667421E-06</v>
+        <v>1.116087877291591</v>
       </c>
       <c r="O4">
-        <v>7.416107926465977E-06</v>
+        <v>0.8723446855793139</v>
       </c>
       <c r="P4">
-        <v>6.468226909933768E-06</v>
+        <v>0.9773928867066017</v>
       </c>
       <c r="Q4">
-        <v>-61.97339246142482</v>
+        <v>22.62696449319787</v>
       </c>
       <c r="R4">
-        <v>164.0761038102713</v>
+        <v>-100.0510163384144</v>
       </c>
       <c r="S4">
-        <v>-6.340003437310747</v>
+        <v>153.9280037843832</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7316,22 +7316,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.495808629061086E-06</v>
+        <v>1.116087877288941</v>
       </c>
       <c r="O5">
-        <v>7.416086448121067E-06</v>
+        <v>0.8723446855792132</v>
       </c>
       <c r="P5">
-        <v>6.468205339997125E-06</v>
+        <v>0.9773928867095405</v>
       </c>
       <c r="Q5">
-        <v>-61.97281384401822</v>
+        <v>22.62696449328053</v>
       </c>
       <c r="R5">
-        <v>164.0761828421442</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S5">
-        <v>-6.340092327046347</v>
+        <v>153.9280037844342</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7375,22 +7375,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.495808629061086E-06</v>
+        <v>1.116087877288941</v>
       </c>
       <c r="O6">
-        <v>7.416086448121067E-06</v>
+        <v>0.8723446855792132</v>
       </c>
       <c r="P6">
-        <v>6.468205339997125E-06</v>
+        <v>0.9773928867095406</v>
       </c>
       <c r="Q6">
-        <v>-61.97281384401822</v>
+        <v>22.62696449328052</v>
       </c>
       <c r="R6">
-        <v>164.0761828421442</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S6">
-        <v>-6.340092327046347</v>
+        <v>153.9280037844342</v>
       </c>
     </row>
   </sheetData>
@@ -7506,22 +7506,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100197482530458</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.052967690033151</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.077018811640861</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.57808718246682</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.44286082238195</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.7443018270091</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7532,55 +7532,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.24096506676409</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.226480531316522</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>14.32943030702339</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>14.16217729822859</v>
       </c>
       <c r="H3">
-        <v>2.77849193662405</v>
+        <v>2.773379543391843</v>
       </c>
       <c r="I3">
-        <v>-776.4949381702152</v>
+        <v>-776.4976094813654</v>
       </c>
       <c r="J3">
-        <v>9090868936.645271</v>
+        <v>0.1077319054463838</v>
       </c>
       <c r="K3">
-        <v>-47202.4936631322</v>
+        <v>2.3084386947077</v>
       </c>
       <c r="L3">
-        <v>9090937109.704126</v>
+        <v>0.1077319054079177</v>
       </c>
       <c r="M3">
-        <v>-60387.33950406314</v>
+        <v>2.308438694652609</v>
       </c>
       <c r="N3">
-        <v>1.495882144287874E-06</v>
+        <v>1.116087877299543</v>
       </c>
       <c r="O3">
-        <v>7.416172361479501E-06</v>
+        <v>0.8723446855796162</v>
       </c>
       <c r="P3">
-        <v>6.468291620252532E-06</v>
+        <v>0.9773928866977848</v>
       </c>
       <c r="Q3">
-        <v>-61.9751282538282</v>
+        <v>22.62696449294992</v>
       </c>
       <c r="R3">
-        <v>164.0758667130463</v>
+        <v>-100.0510163396292</v>
       </c>
       <c r="S3">
-        <v>-6.339736773930855</v>
+        <v>153.9280037842302</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7624,22 +7624,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.495827007667421E-06</v>
+        <v>1.116087877291591</v>
       </c>
       <c r="O4">
-        <v>7.416107926465977E-06</v>
+        <v>0.8723446855793139</v>
       </c>
       <c r="P4">
-        <v>6.468226909933768E-06</v>
+        <v>0.9773928867066017</v>
       </c>
       <c r="Q4">
-        <v>-61.97339246142482</v>
+        <v>22.62696449319787</v>
       </c>
       <c r="R4">
-        <v>164.0761038102713</v>
+        <v>-100.0510163384144</v>
       </c>
       <c r="S4">
-        <v>-6.340003437310747</v>
+        <v>153.9280037843832</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7683,22 +7683,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.495808629061086E-06</v>
+        <v>1.116087877288941</v>
       </c>
       <c r="O5">
-        <v>7.416086448121067E-06</v>
+        <v>0.8723446855792132</v>
       </c>
       <c r="P5">
-        <v>6.468205339997125E-06</v>
+        <v>0.9773928867095405</v>
       </c>
       <c r="Q5">
-        <v>-61.97281384401822</v>
+        <v>22.62696449328053</v>
       </c>
       <c r="R5">
-        <v>164.0761828421442</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S5">
-        <v>-6.340092327046347</v>
+        <v>153.9280037844342</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7742,22 +7742,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.495808629061086E-06</v>
+        <v>1.116087877288941</v>
       </c>
       <c r="O6">
-        <v>7.416086448121067E-06</v>
+        <v>0.8723446855792132</v>
       </c>
       <c r="P6">
-        <v>6.468205339997125E-06</v>
+        <v>0.9773928867095406</v>
       </c>
       <c r="Q6">
-        <v>-61.97281384401822</v>
+        <v>22.62696449328052</v>
       </c>
       <c r="R6">
-        <v>164.0761828421442</v>
+        <v>-100.0510163380095</v>
       </c>
       <c r="S6">
-        <v>-6.340092327046347</v>
+        <v>153.9280037844342</v>
       </c>
     </row>
   </sheetData>
@@ -7873,22 +7873,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9479629327952086</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.793667423273948</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9577485482224861</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>24.74293048954462</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.22492623897007</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.5226617187505</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7899,55 +7899,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.134309689732544</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.133089580966088</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>47.73889624560725</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.72480764311216</v>
       </c>
       <c r="H3">
-        <v>5.323658511042595</v>
+        <v>5.32443794456654</v>
       </c>
       <c r="I3">
-        <v>-776.4968811056406</v>
+        <v>-776.5031802328548</v>
       </c>
       <c r="J3">
-        <v>9090873877.686024</v>
+        <v>0.1153518595240183</v>
       </c>
       <c r="K3">
-        <v>16057.9855978489</v>
+        <v>2.416397540775549</v>
       </c>
       <c r="L3">
-        <v>9090893234.13781</v>
+        <v>0.1153518594660952</v>
       </c>
       <c r="M3">
-        <v>-14505.73126450181</v>
+        <v>2.416397540684741</v>
       </c>
       <c r="N3">
-        <v>7.130067578316077E-06</v>
+        <v>0.8673744852762012</v>
       </c>
       <c r="O3">
-        <v>6.86360520512574E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.34175320034644E-06</v>
+        <v>0.8673744852763517</v>
       </c>
       <c r="Q3">
-        <v>-73.91479558191044</v>
+        <v>-0.004874373329656676</v>
       </c>
       <c r="R3">
-        <v>95.29881036955214</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>179.288722383233</v>
+        <v>179.9951256266013</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7991,22 +7991,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.130000524493178E-06</v>
+        <v>0.8673744852517463</v>
       </c>
       <c r="O4">
-        <v>6.863518693937965E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.341848850964566E-06</v>
+        <v>0.8673744853005783</v>
       </c>
       <c r="Q4">
-        <v>-73.91424717047252</v>
+        <v>-0.004874370613252754</v>
       </c>
       <c r="R4">
-        <v>95.29846927437761</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>179.2888144818239</v>
+        <v>179.995125623877</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8050,22 +8050,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.129978173143578E-06</v>
+        <v>0.8673744852435943</v>
       </c>
       <c r="O5">
-        <v>6.863489856924498E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.341880734331749E-06</v>
+        <v>0.8673744853086537</v>
       </c>
       <c r="Q5">
-        <v>-73.91406436573307</v>
+        <v>-0.004874369707787933</v>
       </c>
       <c r="R5">
-        <v>95.29835557363127</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.2888451853799</v>
+        <v>179.9951256229689</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8109,22 +8109,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.129978173143578E-06</v>
+        <v>0.8673744852435943</v>
       </c>
       <c r="O6">
-        <v>6.863489856924498E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.341880734331749E-06</v>
+        <v>0.8673744853086537</v>
       </c>
       <c r="Q6">
-        <v>-73.91406436573307</v>
+        <v>-0.004874369707791672</v>
       </c>
       <c r="R6">
-        <v>95.29835557363127</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>179.2888451853799</v>
+        <v>179.9951256229689</v>
       </c>
     </row>
   </sheetData>
@@ -8391,22 +8391,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9479629327952086</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.793667423273948</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9577485482224861</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>24.74293048954462</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.22492623897007</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.5226617187505</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8417,55 +8417,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.134309689732544</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.133089580966088</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>47.73889624560725</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.72480764311216</v>
       </c>
       <c r="H3">
-        <v>5.323658511042595</v>
+        <v>5.32443794456654</v>
       </c>
       <c r="I3">
-        <v>-776.4968811056406</v>
+        <v>-776.5031802328548</v>
       </c>
       <c r="J3">
-        <v>9090873877.686024</v>
+        <v>0.1153518595240183</v>
       </c>
       <c r="K3">
-        <v>16057.9855978489</v>
+        <v>2.416397540775549</v>
       </c>
       <c r="L3">
-        <v>9090893234.13781</v>
+        <v>0.1153518594660952</v>
       </c>
       <c r="M3">
-        <v>-14505.73126450181</v>
+        <v>2.416397540684741</v>
       </c>
       <c r="N3">
-        <v>7.130067578316077E-06</v>
+        <v>0.8673744852762012</v>
       </c>
       <c r="O3">
-        <v>6.86360520512574E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.34175320034644E-06</v>
+        <v>0.8673744852763517</v>
       </c>
       <c r="Q3">
-        <v>-73.91479558191044</v>
+        <v>-0.004874373329656676</v>
       </c>
       <c r="R3">
-        <v>95.29881036955214</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>179.288722383233</v>
+        <v>179.9951256266013</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8509,22 +8509,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.130000524493178E-06</v>
+        <v>0.8673744852517463</v>
       </c>
       <c r="O4">
-        <v>6.863518693937965E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.341848850964566E-06</v>
+        <v>0.8673744853005783</v>
       </c>
       <c r="Q4">
-        <v>-73.91424717047252</v>
+        <v>-0.004874370613252754</v>
       </c>
       <c r="R4">
-        <v>95.29846927437761</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>179.2888144818239</v>
+        <v>179.995125623877</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8568,22 +8568,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.129978173143578E-06</v>
+        <v>0.8673744852435943</v>
       </c>
       <c r="O5">
-        <v>6.863489856924498E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.341880734331749E-06</v>
+        <v>0.8673744853086537</v>
       </c>
       <c r="Q5">
-        <v>-73.91406436573307</v>
+        <v>-0.004874369707787933</v>
       </c>
       <c r="R5">
-        <v>95.29835557363127</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.2888451853799</v>
+        <v>179.9951256229689</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8627,22 +8627,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.129978173143578E-06</v>
+        <v>0.8673744852435943</v>
       </c>
       <c r="O6">
-        <v>6.863489856924498E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.341880734331749E-06</v>
+        <v>0.8673744853086537</v>
       </c>
       <c r="Q6">
-        <v>-73.91406436573307</v>
+        <v>-0.004874369707791672</v>
       </c>
       <c r="R6">
-        <v>95.29835557363127</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>179.2888451853799</v>
+        <v>179.9951256229689</v>
       </c>
     </row>
   </sheetData>
@@ -8758,22 +8758,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000075661782308</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9517844802529014</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9766093127257252</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.40068260453791</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.61401138281126</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.8478479881161</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8784,55 +8784,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.116544303876465</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.103428511147644</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12.8927430881044</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>12.74129495885201</v>
       </c>
       <c r="H3">
-        <v>5.323658511042595</v>
+        <v>5.32443794456654</v>
       </c>
       <c r="I3">
-        <v>-776.4968811056406</v>
+        <v>-776.5031802328548</v>
       </c>
       <c r="J3">
-        <v>9090873877.686024</v>
+        <v>0.1153518595240183</v>
       </c>
       <c r="K3">
-        <v>16057.9855978489</v>
+        <v>2.416397540775549</v>
       </c>
       <c r="L3">
-        <v>9090893234.13781</v>
+        <v>0.1153518594660952</v>
       </c>
       <c r="M3">
-        <v>-14505.73126450181</v>
+        <v>2.416397540684741</v>
       </c>
       <c r="N3">
-        <v>7.12875024280477E-06</v>
+        <v>1.014512613074956</v>
       </c>
       <c r="O3">
-        <v>6.863006764761538E-06</v>
+        <v>0.7848521014138748</v>
       </c>
       <c r="P3">
-        <v>1.343443197990109E-06</v>
+        <v>0.8851440381793233</v>
       </c>
       <c r="Q3">
-        <v>-73.90208970457624</v>
+        <v>22.35631775408591</v>
       </c>
       <c r="R3">
-        <v>95.29466236969147</v>
+        <v>-100.4045966786921</v>
       </c>
       <c r="S3">
-        <v>179.3388336373157</v>
+        <v>154.1410967946805</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8876,22 +8876,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.128683204099317E-06</v>
+        <v>1.014512613066554</v>
       </c>
       <c r="O4">
-        <v>6.862920256404509E-06</v>
+        <v>0.7848521014214509</v>
       </c>
       <c r="P4">
-        <v>1.343538850395349E-06</v>
+        <v>0.8851440381920836</v>
       </c>
       <c r="Q4">
-        <v>-73.9015410727888</v>
+        <v>22.35631775464034</v>
       </c>
       <c r="R4">
-        <v>95.29432119258547</v>
+        <v>-100.4045966769001</v>
       </c>
       <c r="S4">
-        <v>179.3389220469838</v>
+        <v>154.1410967946492</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.128660857830705E-06</v>
+        <v>1.014512613063754</v>
       </c>
       <c r="O5">
-        <v>6.86289142044398E-06</v>
+        <v>0.7848521014239764</v>
       </c>
       <c r="P5">
-        <v>1.343570734474598E-06</v>
+        <v>0.8851440381963369</v>
       </c>
       <c r="Q5">
-        <v>-73.9013581934443</v>
+        <v>22.35631775482516</v>
       </c>
       <c r="R5">
-        <v>95.29420746471217</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S5">
-        <v>179.3389515256161</v>
+        <v>154.1410967946387</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8994,22 +8994,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.128660857830705E-06</v>
+        <v>1.014512613063754</v>
       </c>
       <c r="O6">
-        <v>6.86289142044398E-06</v>
+        <v>0.7848521014239764</v>
       </c>
       <c r="P6">
-        <v>1.343570734474598E-06</v>
+        <v>0.885144038196337</v>
       </c>
       <c r="Q6">
-        <v>-73.9013581934443</v>
+        <v>22.35631775482516</v>
       </c>
       <c r="R6">
-        <v>95.29420746471217</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S6">
-        <v>179.3389515256161</v>
+        <v>154.1410967946387</v>
       </c>
     </row>
   </sheetData>
@@ -9125,22 +9125,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000075661782308</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9517844802529014</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9766093127257252</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.40068260453791</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.61401138281126</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.8478479881161</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9151,55 +9151,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.116544303876465</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.103428511147644</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12.8927430881044</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>12.74129495885201</v>
       </c>
       <c r="H3">
-        <v>5.323658511042595</v>
+        <v>5.32443794456654</v>
       </c>
       <c r="I3">
-        <v>-776.4968811056406</v>
+        <v>-776.5031802328548</v>
       </c>
       <c r="J3">
-        <v>9090873877.686024</v>
+        <v>0.1153518595240183</v>
       </c>
       <c r="K3">
-        <v>16057.9855978489</v>
+        <v>2.416397540775549</v>
       </c>
       <c r="L3">
-        <v>9090893234.13781</v>
+        <v>0.1153518594660952</v>
       </c>
       <c r="M3">
-        <v>-14505.73126450181</v>
+        <v>2.416397540684741</v>
       </c>
       <c r="N3">
-        <v>7.12875024280477E-06</v>
+        <v>1.014512613074956</v>
       </c>
       <c r="O3">
-        <v>6.863006764761538E-06</v>
+        <v>0.7848521014138748</v>
       </c>
       <c r="P3">
-        <v>1.343443197990109E-06</v>
+        <v>0.8851440381793233</v>
       </c>
       <c r="Q3">
-        <v>-73.90208970457624</v>
+        <v>22.35631775408591</v>
       </c>
       <c r="R3">
-        <v>95.29466236969147</v>
+        <v>-100.4045966786921</v>
       </c>
       <c r="S3">
-        <v>179.3388336373157</v>
+        <v>154.1410967946805</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -9243,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.128683204099317E-06</v>
+        <v>1.014512613066554</v>
       </c>
       <c r="O4">
-        <v>6.862920256404509E-06</v>
+        <v>0.7848521014214509</v>
       </c>
       <c r="P4">
-        <v>1.343538850395349E-06</v>
+        <v>0.8851440381920836</v>
       </c>
       <c r="Q4">
-        <v>-73.9015410727888</v>
+        <v>22.35631775464034</v>
       </c>
       <c r="R4">
-        <v>95.29432119258547</v>
+        <v>-100.4045966769001</v>
       </c>
       <c r="S4">
-        <v>179.3389220469838</v>
+        <v>154.1410967946492</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9302,22 +9302,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.128660857830705E-06</v>
+        <v>1.014512613063754</v>
       </c>
       <c r="O5">
-        <v>6.86289142044398E-06</v>
+        <v>0.7848521014239764</v>
       </c>
       <c r="P5">
-        <v>1.343570734474598E-06</v>
+        <v>0.8851440381963369</v>
       </c>
       <c r="Q5">
-        <v>-73.9013581934443</v>
+        <v>22.35631775482516</v>
       </c>
       <c r="R5">
-        <v>95.29420746471217</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S5">
-        <v>179.3389515256161</v>
+        <v>154.1410967946387</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9361,22 +9361,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.128660857830705E-06</v>
+        <v>1.014512613063754</v>
       </c>
       <c r="O6">
-        <v>6.86289142044398E-06</v>
+        <v>0.7848521014239764</v>
       </c>
       <c r="P6">
-        <v>1.343570734474598E-06</v>
+        <v>0.885144038196337</v>
       </c>
       <c r="Q6">
-        <v>-73.9013581934443</v>
+        <v>22.35631775482516</v>
       </c>
       <c r="R6">
-        <v>95.29420746471217</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S6">
-        <v>179.3389515256161</v>
+        <v>154.1410967946387</v>
       </c>
     </row>
   </sheetData>
@@ -10247,22 +10247,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.8909260930523833</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.18850204033983</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.28600430314903</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10273,55 +10273,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.759944874248851</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.759944874248851</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>54.96310908950708</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>54.96310908950708</v>
       </c>
       <c r="H3">
-        <v>2.77849193662405</v>
+        <v>2.773379543391843</v>
       </c>
       <c r="I3">
-        <v>-776.4949381702152</v>
+        <v>-776.4976094813654</v>
       </c>
       <c r="J3">
-        <v>9090868936.645271</v>
+        <v>0.1077319054463838</v>
       </c>
       <c r="K3">
-        <v>-47202.4936631322</v>
+        <v>2.3084386947077</v>
       </c>
       <c r="L3">
-        <v>9090937109.704126</v>
+        <v>0.1077319054079177</v>
       </c>
       <c r="M3">
-        <v>-60387.33950406314</v>
+        <v>2.308438694652609</v>
       </c>
       <c r="N3">
-        <v>0.9526315480870371</v>
+        <v>0.9526279648020806</v>
       </c>
       <c r="O3">
-        <v>7.416902229895198E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526244159159913</v>
+        <v>0.9526279648025208</v>
       </c>
       <c r="Q3">
-        <v>-1.570571173163757E-06</v>
+        <v>-3.836207795338157E-12</v>
       </c>
       <c r="R3">
-        <v>164.0727245902303</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9998791556078</v>
+        <v>-179.9999999999901</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10365,22 +10365,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526315480602657</v>
+        <v>0.9526279647753095</v>
       </c>
       <c r="O4">
-        <v>7.416837792943344E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526244159427627</v>
+        <v>0.952627964829292</v>
       </c>
       <c r="Q4">
-        <v>-1.569152066843503E-06</v>
+        <v>1.415284799513206E-09</v>
       </c>
       <c r="R4">
-        <v>164.0729616347173</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9998791570269</v>
+        <v>179.9999999985762</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.952631548051342</v>
+        <v>0.9526279647663857</v>
       </c>
       <c r="O5">
-        <v>7.416816313993416E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526244159516866</v>
+        <v>0.9526279648382158</v>
       </c>
       <c r="Q5">
-        <v>-1.568679041478827E-06</v>
+        <v>1.888321939179643E-09</v>
       </c>
       <c r="R5">
-        <v>164.0730406491013</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998791574999</v>
+        <v>179.9999999981031</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10483,22 +10483,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.952631548051342</v>
+        <v>0.9526279647663857</v>
       </c>
       <c r="O6">
-        <v>7.416816313993416E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526244159516866</v>
+        <v>0.9526279648382157</v>
       </c>
       <c r="Q6">
-        <v>-1.568679041478827E-06</v>
+        <v>1.888312294483534E-09</v>
       </c>
       <c r="R6">
-        <v>164.0730406491013</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9998791574999</v>
+        <v>179.9999999981032</v>
       </c>
     </row>
   </sheetData>
